--- a/Export position.xlsx
+++ b/Export position.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\l.golouh.EASVN\Documents\HMI\HMI Export\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\l.golouh.EASVN\Documents\HMI eShuttle\HMI Export\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D530A62-CBB1-42D4-B51E-FCA972B9611B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{716E2604-C749-4CE2-95E2-D9543B934655}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{75F88BEA-F59A-4F29-B5A8-A67F136AE221}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="177">
   <si>
     <t>x</t>
   </si>
@@ -549,6 +549,24 @@
   </si>
   <si>
     <t>Triangle</t>
+  </si>
+  <si>
+    <t>Global</t>
+  </si>
+  <si>
+    <t>Rear Top Hatch</t>
+  </si>
+  <si>
+    <t>Rear Bottom Hatch</t>
+  </si>
+  <si>
+    <t>Front Hatch</t>
+  </si>
+  <si>
+    <t>Charging door</t>
+  </si>
+  <si>
+    <t>Shuttle side</t>
   </si>
 </sst>
 </file>
@@ -673,7 +691,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="26">
+  <borders count="27">
     <border>
       <left/>
       <right/>
@@ -967,29 +985,46 @@
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
       <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
       <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -999,7 +1034,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="81">
+  <cellXfs count="79">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1115,14 +1150,25 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="21" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="22" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="23" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="21" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="22" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="24" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="24" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="25" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="24" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="26" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1138,21 +1184,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Navadno" xfId="0" builtinId="0"/>
@@ -1654,10 +1687,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E0465AF-D8FE-4999-AC2A-B16D0D212222}">
-  <dimension ref="B1:S90"/>
+  <dimension ref="B1:S99"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F80" sqref="F80"/>
+    <sheetView tabSelected="1" topLeftCell="A44" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
+      <selection activeCell="F89" sqref="F89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1671,56 +1704,56 @@
   <sheetData>
     <row r="1" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="74" t="s">
+      <c r="B2" s="68" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="71" t="s">
+      <c r="C2" s="74" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="72"/>
-      <c r="F2" s="74" t="s">
+      <c r="D2" s="75"/>
+      <c r="F2" s="68" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="73" t="s">
+      <c r="G2" s="76" t="s">
         <v>2</v>
       </c>
-      <c r="H2" s="72"/>
+      <c r="H2" s="75"/>
       <c r="I2" s="46"/>
-      <c r="J2" s="76" t="s">
+      <c r="J2" s="70" t="s">
         <v>3</v>
       </c>
-      <c r="K2" s="71" t="s">
+      <c r="K2" s="74" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="72"/>
+      <c r="L2" s="75"/>
       <c r="N2" s="48" t="s">
         <v>144</v>
       </c>
       <c r="O2" s="49"/>
-      <c r="Q2" s="69" t="s">
+      <c r="Q2" s="72" t="s">
         <v>3</v>
       </c>
-      <c r="R2" s="70" t="s">
+      <c r="R2" s="73" t="s">
         <v>2</v>
       </c>
-      <c r="S2" s="70"/>
+      <c r="S2" s="73"/>
     </row>
     <row r="3" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="75"/>
+      <c r="B3" s="69"/>
       <c r="C3" s="27" t="s">
         <v>0</v>
       </c>
       <c r="D3" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="F3" s="75"/>
+      <c r="F3" s="69"/>
       <c r="G3" s="3" t="s">
         <v>0</v>
       </c>
       <c r="H3" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="J3" s="77"/>
+      <c r="J3" s="71"/>
       <c r="K3" t="s">
         <v>0</v>
       </c>
@@ -1731,7 +1764,7 @@
         <v>145</v>
       </c>
       <c r="O3" s="50"/>
-      <c r="Q3" s="69"/>
+      <c r="Q3" s="72"/>
       <c r="R3" s="57" t="s">
         <v>0</v>
       </c>
@@ -1746,7 +1779,7 @@
       <c r="C4" s="11">
         <v>0</v>
       </c>
-      <c r="D4" s="58">
+      <c r="D4" s="11">
         <v>0</v>
       </c>
       <c r="F4" s="14" t="s">
@@ -1784,7 +1817,7 @@
       <c r="C5" s="1">
         <v>0</v>
       </c>
-      <c r="D5" s="59">
+      <c r="D5" s="1">
         <v>0</v>
       </c>
       <c r="F5" s="13" t="s">
@@ -1822,7 +1855,7 @@
       <c r="C6" s="1">
         <v>14</v>
       </c>
-      <c r="D6" s="59">
+      <c r="D6" s="1">
         <v>36</v>
       </c>
       <c r="F6" s="2" t="s">
@@ -1860,7 +1893,7 @@
       <c r="C7" s="6">
         <v>480</v>
       </c>
-      <c r="D7" s="60">
+      <c r="D7" s="6">
         <v>118</v>
       </c>
       <c r="F7" s="2" t="s">
@@ -1898,7 +1931,7 @@
       <c r="C8" s="13">
         <v>480</v>
       </c>
-      <c r="D8" s="61">
+      <c r="D8" s="13">
         <v>124</v>
       </c>
       <c r="F8" s="2" t="s">
@@ -1936,7 +1969,7 @@
       <c r="C9" s="2">
         <v>711</v>
       </c>
-      <c r="D9" s="62">
+      <c r="D9" s="2">
         <v>139</v>
       </c>
       <c r="F9" s="2" t="s">
@@ -1974,7 +2007,7 @@
       <c r="C10" s="2">
         <v>632</v>
       </c>
-      <c r="D10" s="62">
+      <c r="D10" s="2">
         <v>293</v>
       </c>
       <c r="F10" s="10" t="s">
@@ -2008,7 +2041,7 @@
       <c r="C11" s="10">
         <v>712</v>
       </c>
-      <c r="D11" s="63">
+      <c r="D11" s="10">
         <v>109</v>
       </c>
       <c r="F11" s="5" t="s">
@@ -2042,7 +2075,7 @@
       <c r="C12" s="23">
         <v>500</v>
       </c>
-      <c r="D12" s="64">
+      <c r="D12" s="23">
         <v>13</v>
       </c>
       <c r="F12" s="1" t="s">
@@ -2077,7 +2110,7 @@
       <c r="C13" s="1">
         <v>585</v>
       </c>
-      <c r="D13" s="59">
+      <c r="D13" s="1">
         <v>16</v>
       </c>
       <c r="F13" s="1" t="s">
@@ -2111,7 +2144,7 @@
       <c r="C14" s="1">
         <v>649</v>
       </c>
-      <c r="D14" s="59">
+      <c r="D14" s="1">
         <v>16</v>
       </c>
       <c r="F14" s="1" t="s">
@@ -2140,7 +2173,7 @@
       <c r="C15" s="1">
         <v>704</v>
       </c>
-      <c r="D15" s="59">
+      <c r="D15" s="1">
         <v>16</v>
       </c>
       <c r="F15" s="1" t="s">
@@ -2169,7 +2202,7 @@
       <c r="C16" s="1">
         <v>759</v>
       </c>
-      <c r="D16" s="59">
+      <c r="D16" s="1">
         <v>16</v>
       </c>
       <c r="F16" s="6" t="s">
@@ -2199,7 +2232,7 @@
       <c r="C17" s="1">
         <v>816</v>
       </c>
-      <c r="D17" s="59">
+      <c r="D17" s="1">
         <v>16</v>
       </c>
       <c r="F17" s="13" t="s">
@@ -2228,7 +2261,7 @@
       <c r="C18" s="1">
         <v>894</v>
       </c>
-      <c r="D18" s="59">
+      <c r="D18" s="1">
         <v>16</v>
       </c>
       <c r="F18" s="2" t="s">
@@ -2257,7 +2290,7 @@
       <c r="C19" s="6">
         <v>539</v>
       </c>
-      <c r="D19" s="60">
+      <c r="D19" s="6">
         <v>16</v>
       </c>
       <c r="F19" s="2" t="s">
@@ -2286,7 +2319,7 @@
       <c r="C20" s="13">
         <v>707</v>
       </c>
-      <c r="D20" s="61">
+      <c r="D20" s="13">
         <v>450</v>
       </c>
       <c r="F20" s="2" t="s">
@@ -2315,7 +2348,7 @@
       <c r="C21" s="2">
         <v>706</v>
       </c>
-      <c r="D21" s="62">
+      <c r="D21" s="2">
         <v>450</v>
       </c>
       <c r="F21" s="2" t="s">
@@ -2344,7 +2377,7 @@
       <c r="C22" s="2">
         <v>705</v>
       </c>
-      <c r="D22" s="62">
+      <c r="D22" s="2">
         <v>450</v>
       </c>
       <c r="F22" s="2" t="s">
@@ -2373,7 +2406,7 @@
       <c r="C23" s="10">
         <v>707</v>
       </c>
-      <c r="D23" s="63">
+      <c r="D23" s="10">
         <v>450</v>
       </c>
       <c r="F23" s="2" t="s">
@@ -2402,7 +2435,7 @@
       <c r="C24" s="5">
         <v>15</v>
       </c>
-      <c r="D24" s="65">
+      <c r="D24" s="5">
         <v>15</v>
       </c>
       <c r="F24" s="10" t="s">
@@ -2431,7 +2464,7 @@
       <c r="C25" s="1">
         <v>90</v>
       </c>
-      <c r="D25" s="59">
+      <c r="D25" s="1">
         <v>15</v>
       </c>
       <c r="F25" s="11" t="s">
@@ -2460,7 +2493,7 @@
       <c r="C26" s="1">
         <v>638</v>
       </c>
-      <c r="D26" s="59">
+      <c r="D26" s="1">
         <v>505</v>
       </c>
       <c r="F26" s="1" t="s">
@@ -2489,7 +2522,7 @@
       <c r="C27" s="6">
         <v>1248</v>
       </c>
-      <c r="D27" s="60">
+      <c r="D27" s="6">
         <v>16</v>
       </c>
       <c r="F27" s="1" t="s">
@@ -2518,7 +2551,7 @@
       <c r="C28" s="13">
         <v>688</v>
       </c>
-      <c r="D28" s="61">
+      <c r="D28" s="13">
         <v>228</v>
       </c>
       <c r="F28" s="1" t="s">
@@ -2547,7 +2580,7 @@
       <c r="C29" s="10">
         <v>675</v>
       </c>
-      <c r="D29" s="63">
+      <c r="D29" s="10">
         <v>228</v>
       </c>
       <c r="F29" s="1" t="s">
@@ -2576,7 +2609,7 @@
       <c r="C30" s="11">
         <v>1175</v>
       </c>
-      <c r="D30" s="58">
+      <c r="D30" s="11">
         <v>356</v>
       </c>
       <c r="F30" s="1" t="s">
@@ -2605,7 +2638,7 @@
       <c r="C31" s="12">
         <v>1155</v>
       </c>
-      <c r="D31" s="66">
+      <c r="D31" s="12">
         <v>356</v>
       </c>
       <c r="F31" s="1" t="s">
@@ -2634,7 +2667,7 @@
       <c r="C32" s="13">
         <v>1097</v>
       </c>
-      <c r="D32" s="61">
+      <c r="D32" s="13">
         <v>268</v>
       </c>
       <c r="F32" s="1" t="s">
@@ -2663,7 +2696,7 @@
       <c r="C33" s="2">
         <v>1261</v>
       </c>
-      <c r="D33" s="62">
+      <c r="D33" s="2">
         <v>268</v>
       </c>
       <c r="F33" s="1" t="s">
@@ -2692,7 +2725,7 @@
       <c r="C34" s="2">
         <v>1297</v>
       </c>
-      <c r="D34" s="62">
+      <c r="D34" s="2">
         <v>268</v>
       </c>
       <c r="F34" s="1" t="s">
@@ -2721,7 +2754,7 @@
       <c r="C35" s="24">
         <v>1059</v>
       </c>
-      <c r="D35" s="62">
+      <c r="D35" s="2">
         <v>268</v>
       </c>
       <c r="F35" s="1" t="s">
@@ -2750,7 +2783,7 @@
       <c r="C36" s="2">
         <v>1263</v>
       </c>
-      <c r="D36" s="67">
+      <c r="D36" s="24">
         <v>182</v>
       </c>
       <c r="F36" s="1" t="s">
@@ -2779,7 +2812,7 @@
       <c r="C37" s="10">
         <v>1109</v>
       </c>
-      <c r="D37" s="68">
+      <c r="D37" s="64">
         <v>182</v>
       </c>
       <c r="F37" s="1" t="s">
@@ -2808,7 +2841,7 @@
       <c r="C38" s="11">
         <v>630</v>
       </c>
-      <c r="D38" s="58">
+      <c r="D38" s="11">
         <v>59</v>
       </c>
       <c r="F38" s="1" t="s">
@@ -2837,7 +2870,7 @@
       <c r="C39" s="1">
         <v>630</v>
       </c>
-      <c r="D39" s="59">
+      <c r="D39" s="1">
         <v>59</v>
       </c>
       <c r="F39" s="1" t="s">
@@ -2866,7 +2899,7 @@
       <c r="C40" s="1">
         <v>585</v>
       </c>
-      <c r="D40" s="59">
+      <c r="D40" s="1">
         <v>59</v>
       </c>
       <c r="F40" s="12" t="s">
@@ -2895,7 +2928,7 @@
       <c r="C41" s="1">
         <v>640</v>
       </c>
-      <c r="D41" s="59">
+      <c r="D41" s="1">
         <v>59</v>
       </c>
       <c r="J41" s="7" t="s">
@@ -2915,7 +2948,7 @@
       <c r="C42" s="1">
         <v>520</v>
       </c>
-      <c r="D42" s="59">
+      <c r="D42" s="1">
         <v>59</v>
       </c>
       <c r="J42" s="8" t="s">
@@ -2935,7 +2968,7 @@
       <c r="C43" s="12">
         <v>535</v>
       </c>
-      <c r="D43" s="66">
+      <c r="D43" s="12">
         <v>59</v>
       </c>
       <c r="J43" s="2" t="s">
@@ -2952,10 +2985,10 @@
       <c r="B44" s="13" t="s">
         <v>72</v>
       </c>
-      <c r="C44" s="78">
+      <c r="C44" s="61">
         <v>15</v>
       </c>
-      <c r="D44" s="78">
+      <c r="D44" s="61">
         <v>498</v>
       </c>
       <c r="J44" s="2" t="s">
@@ -3349,13 +3382,13 @@
       </c>
     </row>
     <row r="64" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B64" s="79" t="s">
+      <c r="B64" s="62" t="s">
         <v>153</v>
       </c>
-      <c r="C64" s="79">
+      <c r="C64" s="62">
         <v>796</v>
       </c>
-      <c r="D64" s="79">
+      <c r="D64" s="62">
         <v>498</v>
       </c>
       <c r="J64" s="2" t="s">
@@ -3369,13 +3402,13 @@
       </c>
     </row>
     <row r="65" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B65" s="80" t="s">
+      <c r="B65" s="63" t="s">
         <v>154</v>
       </c>
-      <c r="C65" s="80">
+      <c r="C65" s="63">
         <v>776</v>
       </c>
-      <c r="D65" s="80">
+      <c r="D65" s="63">
         <v>498</v>
       </c>
       <c r="J65" s="2" t="s">
@@ -3707,15 +3740,96 @@
       </c>
     </row>
     <row r="90" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B90" s="10" t="s">
+      <c r="B90" s="9" t="s">
         <v>170</v>
       </c>
-      <c r="C90" s="10">
+      <c r="C90" s="9">
         <v>14</v>
       </c>
-      <c r="D90" s="10">
+      <c r="D90" s="9">
         <v>371</v>
       </c>
+    </row>
+    <row r="91" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B91" s="65" t="s">
+        <v>171</v>
+      </c>
+      <c r="C91" s="11">
+        <v>1024</v>
+      </c>
+      <c r="D91" s="58">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="92" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B92" s="66" t="s">
+        <v>176</v>
+      </c>
+      <c r="C92" s="1">
+        <v>1020</v>
+      </c>
+      <c r="D92" s="59">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="93" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B93" s="66" t="s">
+        <v>172</v>
+      </c>
+      <c r="C93" s="1">
+        <v>984</v>
+      </c>
+      <c r="D93" s="59">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="94" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B94" s="66" t="s">
+        <v>173</v>
+      </c>
+      <c r="C94" s="1">
+        <v>984</v>
+      </c>
+      <c r="D94" s="59">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="95" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B95" s="66" t="s">
+        <v>174</v>
+      </c>
+      <c r="C95" s="1">
+        <v>293</v>
+      </c>
+      <c r="D95" s="59">
+        <v>1382</v>
+      </c>
+    </row>
+    <row r="96" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B96" s="67" t="s">
+        <v>175</v>
+      </c>
+      <c r="C96" s="12">
+        <v>1049</v>
+      </c>
+      <c r="D96" s="60">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="97" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B97" s="78"/>
+      <c r="C97" s="78"/>
+      <c r="D97" s="78"/>
+    </row>
+    <row r="98" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B98" s="78"/>
+      <c r="C98" s="78"/>
+      <c r="D98" s="78"/>
+    </row>
+    <row r="99" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B99" s="77"/>
+      <c r="C99" s="77"/>
+      <c r="D99" s="77"/>
     </row>
   </sheetData>
   <mergeCells count="8">
